--- a/biology/Botanique/Une_grande_année/Une_grande_année.xlsx
+++ b/biology/Botanique/Une_grande_année/Une_grande_année.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Une_grande_ann%C3%A9e</t>
+          <t>Une_grande_année</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une grande année (A Good Year), ou Un bon cru au Québec, est un film américano-britannique réalisé par Ridley Scott et sorti en 2006.
 Il s'agit d'une adaptation du roman Un bon cru de l'écrivain anglais Peter Mayle.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Une_grande_ann%C3%A9e</t>
+          <t>Une_grande_année</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Skinner est un trader avare et sans scrupule qui travaille à la City de Londres. Un jour, il hérite de son oncle Henry un vignoble en Provence. Il se rend sur les lieux et il tombe sous le charme de la France profonde, en particulier du vin, du climat méditerranéen et des femmes, surtout Fanny Chenal, jolie gérante d'un café local. Il retrouve sur le domaine de son oncle Francis Duflot, le vigneron qu’il a connu tout petit et qui veille depuis trente ans sur le vignoble. 
 Alors qu’il prend possession de ses terres, Max apprend qu’il est suspendu à la suite d'une de ses transactions douteuses. Il se résout à s’installer quelque temps dans la propriété. Sachant qu’un château et un vignoble peuvent valoir plusieurs millions de dollars si le vin est bon, il envisage de vendre. Mais il découvre que le domaine ne produit qu’une horrible vinasse. Alors que Max commence peu à peu à goûter la douceur de la vie provençale, une Californienne, Christie Roberts, débarque soudain et prétend qu’elle est la fille illégitime de l’oncle décédé, ce qui pourrait faire d’elle l’héritière du domaine.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Une_grande_ann%C3%A9e</t>
+          <t>Une_grande_année</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre français : Une grande année
@@ -565,7 +581,7 @@
 Coproduction : Erin Upson Cuevas et Can Yilmaz
 Sociétés de production : Fox 2000 Pictures et Scott Free Productions
 Sociétés de distribution : Fox 2000 Pictures , Twentieth Century Fox France 
-Budget : 35 000 000 $[1]
+Budget : 35 000 000 $
 Pays de production :  Royaume-Uni,  États-Unis
 Genre : comédie dramatique et romantique
 Langues originales : anglais, français et russe
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Une_grande_ann%C3%A9e</t>
+          <t>Une_grande_année</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Russell Crowe (VF : Philippe Vincent) : Max Skinner
 Marion Cotillard (VF : elle-même) : Fanny Chenal
@@ -628,7 +646,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Une_grande_ann%C3%A9e</t>
+          <t>Une_grande_année</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,9 +664,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cinéaste Ridley Scott et l'écrivain Peter Mayle sont voisins de vacances dans le Luberon. C'est à la suite d'un article sur le prix du vin, en 2004, que leur est venue l'idée de traiter le sujet. Ils convinrent alors que Peter écrira un roman et que Ridley l'adaptera au cinéma[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cinéaste Ridley Scott et l'écrivain Peter Mayle sont voisins de vacances dans le Luberon. C'est à la suite d'un article sur le prix du vin, en 2004, que leur est venue l'idée de traiter le sujet. Ils convinrent alors que Peter écrira un roman et que Ridley l'adaptera au cinéma.
 Le tournage a lieu du 29 août au 5 novembre 2005. Il se déroule à Londres pour les séquences de bourse, Bonnieux pour le domaine viticole (domaine du Château La Canorgue), Gordes pour les scènes du restaurant où travaille le personnage incarné par Marion Cotillard, Cucuron pour la scène du restaurant où Max et Fanny vont dîner (avec bassin, puis pluie).
 </t>
         </is>
@@ -660,7 +680,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Une_grande_ann%C3%A9e</t>
+          <t>Une_grande_année</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,7 +698,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La musique du film est composée par Marc Streitenfeld. Il s'agit de sa première composition pour le cinéma, après avoir officié pour Hans Zimmer au sein de Remote Control Productions. Outre ces compositions, on peut entendre plusieurs chansons non originales dans le film :
 Dans la bande-annonce du film, on entend Moi... Lolita d'Alizée. Cette chanson passe dans le film lorsque le personnage de Russell Crowe roule dans la campagne française avec sa voiture.
@@ -694,7 +716,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Une_grande_ann%C3%A9e</t>
+          <t>Une_grande_année</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,11 +734,13 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film reçoit des critiques globalement négatives. Sur l'agrégateur américain Rotten Tomatoes, il ne récolte que 25 % d'opinions favorables pour 134 critiques et une note moyenne de 4,8⁄10. Le consensus suivant résume les critiques compilées par le site : « A Good Year est l'exemple parfait d'un réalisateur et d'un acteur de premier ordre sortis de leur domaine de spécialité pour une comédie à l'eau de rose manquant de charme et d'humour. » (« A Good Year is a fine example of a top-notch director and actor out of their elements, in a sappy romantic comedy lacking in charm and humor. »[3]). Sur Metacritic, il obtient une note moyenne de 47⁄100 pour 33 critiques[4].
-En France, le film obtient une note moyenne de 1,9⁄5 sur le site Allociné, à partir de l'interprétation de 26 critiques de presse recensées[5].
-Produit pour un budget de 35 millions de dollars, le film n'en récolte que 42 269 923 $ au box-office dans le monde, dont 7,5 millions sur le sol américain[1]. En France, Une grande année n'attire que 166 550 spectateurs en salles[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques globalement négatives. Sur l'agrégateur américain Rotten Tomatoes, il ne récolte que 25 % d'opinions favorables pour 134 critiques et une note moyenne de 4,8⁄10. Le consensus suivant résume les critiques compilées par le site : « A Good Year est l'exemple parfait d'un réalisateur et d'un acteur de premier ordre sortis de leur domaine de spécialité pour une comédie à l'eau de rose manquant de charme et d'humour. » (« A Good Year is a fine example of a top-notch director and actor out of their elements, in a sappy romantic comedy lacking in charm and humor. »). Sur Metacritic, il obtient une note moyenne de 47⁄100 pour 33 critiques.
+En France, le film obtient une note moyenne de 1,9⁄5 sur le site Allociné, à partir de l'interprétation de 26 critiques de presse recensées.
+Produit pour un budget de 35 millions de dollars, le film n'en récolte que 42 269 923 $ au box-office dans le monde, dont 7,5 millions sur le sol américain. En France, Une grande année n'attire que 166 550 spectateurs en salles.
 </t>
         </is>
       </c>
